--- a/assets/translations/Czech.Czechia.cz-CZ.xlsx
+++ b/assets/translations/Czech.Czechia.cz-CZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zdeňka Bendová\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bendova\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944E9C2F-E41D-4939-B533-8642C4BFF50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9150" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contributors" sheetId="2" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="201">
   <si>
     <t>Number</t>
   </si>
@@ -422,9 +421,6 @@
     <t>Světlo blokuje tvorbu melatoninu (hormonu, který řídí cykly spánku a bdění), zejména večer a v noci.</t>
   </si>
   <si>
-    <t>Světlo je hlavní signál, který zajišťuje signalizaci cirkadiánní soustavy s 24hodinovými cykly vnějšího prostředí.</t>
-  </si>
-  <si>
     <t>Světlo přímo ovlivňuje biologické hodiny v mozku, čímž řídí cyklus spánku a bdění a jiné denní fyziologické rytmy.</t>
   </si>
   <si>
@@ -654,12 +650,24 @@
   </si>
   <si>
     <t>Ke zdravému rytmu světla a tmy patří nízká úroveň osvětlení ve večerních hodinách a tma během spánku.</t>
+  </si>
+  <si>
+    <t>Světlo je hlavní signál, který zajišťuje signalizaci cirkadiánního systému s 24hodinovými cykly vnějšího prostředí.</t>
+  </si>
+  <si>
+    <t>Zjednodušené prohlášení</t>
+  </si>
+  <si>
+    <t>Prohlášení</t>
+  </si>
+  <si>
+    <t>Kontextové informace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1363,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1403,34 +1411,34 @@
     </row>
     <row r="2" spans="1:7" s="25" customFormat="1" ht="15.75">
       <c r="A2" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" s="25" customFormat="1" ht="15.75">
       <c r="A3" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1"/>
@@ -1440,8 +1448,8 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B3E00A4B-6452-41AD-9BE8-36C8E31FD768}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{3D58CD83-89D1-43BB-A687-BC7B991E82C8}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1449,11 +1457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
@@ -1479,19 +1487,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="75">
@@ -1508,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>5</v>
@@ -1537,13 +1545,13 @@
         <v>81</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>8</v>
@@ -1566,7 +1574,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>9</v>
@@ -1578,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="90">
@@ -1601,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>83</v>
@@ -1630,13 +1638,13 @@
         <v>12</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="69">
@@ -1653,7 +1661,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>15</v>
@@ -1665,7 +1673,7 @@
         <v>84</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="78">
@@ -1682,7 +1690,7 @@
         <v>68</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -1694,7 +1702,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="78.75">
@@ -1711,13 +1719,13 @@
         <v>78</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>17</v>
@@ -1746,13 +1754,13 @@
         <v>19</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25">
@@ -1810,7 +1818,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51.75">
@@ -1827,19 +1835,19 @@
         <v>27</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51.75">
@@ -1856,19 +1864,19 @@
         <v>85</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="69">
@@ -1885,19 +1893,19 @@
         <v>32</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
@@ -1914,19 +1922,19 @@
         <v>35</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60">
@@ -1943,19 +1951,19 @@
         <v>37</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="47.25">
@@ -1972,19 +1980,19 @@
         <v>40</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>87</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="63">
@@ -2001,19 +2009,19 @@
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60">
@@ -2030,19 +2038,19 @@
         <v>45</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="86.25">
@@ -2059,19 +2067,19 @@
         <v>80</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="60">
@@ -2079,7 +2087,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
@@ -2088,19 +2096,19 @@
         <v>88</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60">
@@ -2108,7 +2116,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
@@ -2117,19 +2125,19 @@
         <v>52</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45">
@@ -2137,7 +2145,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
@@ -2146,19 +2154,19 @@
         <v>55</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45">
@@ -2166,7 +2174,7 @@
         <v>94</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
@@ -2175,19 +2183,19 @@
         <v>58</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90">
@@ -2195,7 +2203,7 @@
         <v>94</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
@@ -2204,19 +2212,19 @@
         <v>61</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>63</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="90.75" thickBot="1">
@@ -2224,7 +2232,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="9">
         <v>26</v>
@@ -2233,32 +2241,33 @@
         <v>64</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>66</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A98B4A3-5095-AF4B-B22C-B7631D8C258B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2281,7 +2290,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58.5">
@@ -2289,7 +2298,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="78">
@@ -2297,7 +2306,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="78">
@@ -2305,7 +2314,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="78.75">
@@ -2313,7 +2322,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
